--- a/natmiOut/OldD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>131.291107931254</v>
+        <v>137.7582515</v>
       </c>
       <c r="H2">
-        <v>131.291107931254</v>
+        <v>275.516503</v>
       </c>
       <c r="I2">
-        <v>0.4542811004905167</v>
+        <v>0.4516299624347573</v>
       </c>
       <c r="J2">
-        <v>0.4542811004905167</v>
+        <v>0.366624765141502</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.8375516326358</v>
+        <v>27.3359195</v>
       </c>
       <c r="N2">
-        <v>26.8375516326358</v>
+        <v>54.67183900000001</v>
       </c>
       <c r="O2">
-        <v>0.5561242250014019</v>
+        <v>0.5208854064261035</v>
       </c>
       <c r="P2">
-        <v>0.5561242250014019</v>
+        <v>0.4206000675568538</v>
       </c>
       <c r="Q2">
-        <v>3523.531888010989</v>
+        <v>3765.748473464755</v>
       </c>
       <c r="R2">
-        <v>3523.531888010989</v>
+        <v>15062.99389385902</v>
       </c>
       <c r="S2">
-        <v>0.2526367249430726</v>
+        <v>0.2352474565370344</v>
       </c>
       <c r="T2">
-        <v>0.2526367249430726</v>
+        <v>0.1542024009865314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>131.291107931254</v>
+        <v>137.7582515</v>
       </c>
       <c r="H3">
-        <v>131.291107931254</v>
+        <v>275.516503</v>
       </c>
       <c r="I3">
-        <v>0.4542811004905167</v>
+        <v>0.4516299624347573</v>
       </c>
       <c r="J3">
-        <v>0.4542811004905167</v>
+        <v>0.366624765141502</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.333261401372031</v>
+        <v>0.02446866666666667</v>
       </c>
       <c r="N3">
-        <v>0.333261401372031</v>
+        <v>0.073406</v>
       </c>
       <c r="O3">
-        <v>0.006905799049698914</v>
+        <v>0.0004662499602902151</v>
       </c>
       <c r="P3">
-        <v>0.006905799049698914</v>
+        <v>0.0005647252611912032</v>
       </c>
       <c r="Q3">
-        <v>43.75425861685628</v>
+        <v>3.370760736536333</v>
       </c>
       <c r="R3">
-        <v>43.75425861685628</v>
+        <v>20.224564419218</v>
       </c>
       <c r="S3">
-        <v>0.003137173992063587</v>
+        <v>0.000210572452051077</v>
       </c>
       <c r="T3">
-        <v>0.003137173992063587</v>
+        <v>0.0002070422662536982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>131.291107931254</v>
+        <v>137.7582515</v>
       </c>
       <c r="H4">
-        <v>131.291107931254</v>
+        <v>275.516503</v>
       </c>
       <c r="I4">
-        <v>0.4542811004905167</v>
+        <v>0.4516299624347573</v>
       </c>
       <c r="J4">
-        <v>0.4542811004905167</v>
+        <v>0.366624765141502</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.680726616986801</v>
+        <v>0.3667503333333333</v>
       </c>
       <c r="N4">
-        <v>0.680726616986801</v>
+        <v>1.100251</v>
       </c>
       <c r="O4">
-        <v>0.01410592767520762</v>
+        <v>0.006988420361540874</v>
       </c>
       <c r="P4">
-        <v>0.01410592767520762</v>
+        <v>0.008464424343389947</v>
       </c>
       <c r="Q4">
-        <v>89.37335174249149</v>
+        <v>50.52288465704216</v>
       </c>
       <c r="R4">
-        <v>89.37335174249149</v>
+        <v>303.137307942253</v>
       </c>
       <c r="S4">
-        <v>0.006408056347732955</v>
+        <v>0.003156180025360998</v>
       </c>
       <c r="T4">
-        <v>0.006408056347732955</v>
+        <v>0.003103267586953351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>131.291107931254</v>
+        <v>137.7582515</v>
       </c>
       <c r="H5">
-        <v>131.291107931254</v>
+        <v>275.516503</v>
       </c>
       <c r="I5">
-        <v>0.4542811004905167</v>
+        <v>0.4516299624347573</v>
       </c>
       <c r="J5">
-        <v>0.4542811004905167</v>
+        <v>0.366624765141502</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.2887580692906</v>
+        <v>0.7310793333333333</v>
       </c>
       <c r="N5">
-        <v>20.2887580692906</v>
+        <v>2.193238</v>
       </c>
       <c r="O5">
-        <v>0.4204209837012255</v>
+        <v>0.01393070226421533</v>
       </c>
       <c r="P5">
-        <v>0.4204209837012255</v>
+        <v>0.0168729654579254</v>
       </c>
       <c r="Q5">
-        <v>2663.733525466333</v>
+        <v>100.7122106677857</v>
       </c>
       <c r="R5">
-        <v>2663.733525466333</v>
+        <v>604.273264006714</v>
       </c>
       <c r="S5">
-        <v>0.1909893071450983</v>
+        <v>0.00629152254027736</v>
       </c>
       <c r="T5">
-        <v>0.1909893071450983</v>
+        <v>0.006186046998252577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.291107931254</v>
+        <v>137.7582515</v>
       </c>
       <c r="H6">
-        <v>131.291107931254</v>
+        <v>275.516503</v>
       </c>
       <c r="I6">
-        <v>0.4542811004905167</v>
+        <v>0.4516299624347573</v>
       </c>
       <c r="J6">
-        <v>0.4542811004905167</v>
+        <v>0.366624765141502</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.117897888021796</v>
+        <v>23.90359566666666</v>
       </c>
       <c r="N6">
-        <v>0.117897888021796</v>
+        <v>71.710787</v>
       </c>
       <c r="O6">
-        <v>0.002443064572466141</v>
+        <v>0.4554825435404473</v>
       </c>
       <c r="P6">
-        <v>0.002443064572466141</v>
+        <v>0.5516836896003288</v>
       </c>
       <c r="Q6">
-        <v>15.47894434113652</v>
+        <v>3292.917543602976</v>
       </c>
       <c r="R6">
-        <v>15.47894434113652</v>
+        <v>19757.50526161786</v>
       </c>
       <c r="S6">
-        <v>0.001109838062549312</v>
+        <v>0.2057095640288599</v>
       </c>
       <c r="T6">
-        <v>0.001109838062549312</v>
+        <v>0.2022609031321178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2862650962286</v>
+        <v>137.7582515</v>
       </c>
       <c r="H7">
-        <v>19.2862650962286</v>
+        <v>275.516503</v>
       </c>
       <c r="I7">
-        <v>0.06673251426025108</v>
+        <v>0.4516299624347573</v>
       </c>
       <c r="J7">
-        <v>0.06673251426025108</v>
+        <v>0.366624765141502</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.8375516326358</v>
+        <v>0.117905</v>
       </c>
       <c r="N7">
-        <v>26.8375516326358</v>
+        <v>0.23581</v>
       </c>
       <c r="O7">
-        <v>0.5561242250014019</v>
+        <v>0.002246677447402848</v>
       </c>
       <c r="P7">
-        <v>0.5561242250014019</v>
+        <v>0.001814127780310842</v>
       </c>
       <c r="Q7">
-        <v>517.5961353207367</v>
+        <v>16.2423866431075</v>
       </c>
       <c r="R7">
-        <v>517.5961353207367</v>
+        <v>64.96954657243</v>
       </c>
       <c r="S7">
-        <v>0.03711156777537713</v>
+        <v>0.001014666851173565</v>
       </c>
       <c r="T7">
-        <v>0.03711156777537713</v>
+        <v>0.0006651041713931366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2862650962286</v>
+        <v>20.799852</v>
       </c>
       <c r="H8">
-        <v>19.2862650962286</v>
+        <v>62.399556</v>
       </c>
       <c r="I8">
-        <v>0.06673251426025108</v>
+        <v>0.0681907346755814</v>
       </c>
       <c r="J8">
-        <v>0.06673251426025108</v>
+        <v>0.0830339464762806</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.333261401372031</v>
+        <v>27.3359195</v>
       </c>
       <c r="N8">
-        <v>0.333261401372031</v>
+        <v>54.67183900000001</v>
       </c>
       <c r="O8">
-        <v>0.006905799049698914</v>
+        <v>0.5208854064261035</v>
       </c>
       <c r="P8">
-        <v>0.006905799049698914</v>
+        <v>0.4206000675568538</v>
       </c>
       <c r="Q8">
-        <v>6.427367733201631</v>
+        <v>568.5830798839141</v>
       </c>
       <c r="R8">
-        <v>6.427367733201631</v>
+        <v>3411.498479303485</v>
       </c>
       <c r="S8">
-        <v>0.0004608413335624611</v>
+        <v>0.03551955854598481</v>
       </c>
       <c r="T8">
-        <v>0.0004608413335624611</v>
+        <v>0.0349240834974358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2862650962286</v>
+        <v>20.799852</v>
       </c>
       <c r="H9">
-        <v>19.2862650962286</v>
+        <v>62.399556</v>
       </c>
       <c r="I9">
-        <v>0.06673251426025108</v>
+        <v>0.0681907346755814</v>
       </c>
       <c r="J9">
-        <v>0.06673251426025108</v>
+        <v>0.0830339464762806</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.680726616986801</v>
+        <v>0.02446866666666667</v>
       </c>
       <c r="N9">
-        <v>0.680726616986801</v>
+        <v>0.073406</v>
       </c>
       <c r="O9">
-        <v>0.01410592767520762</v>
+        <v>0.0004662499602902151</v>
       </c>
       <c r="P9">
-        <v>0.01410592767520762</v>
+        <v>0.0005647252611912032</v>
       </c>
       <c r="Q9">
-        <v>13.12867399326632</v>
+        <v>0.5089446453040001</v>
       </c>
       <c r="R9">
-        <v>13.12867399326632</v>
+        <v>4.580501807736</v>
       </c>
       <c r="S9">
-        <v>0.0009413240197398631</v>
+        <v>3.179392733465043E-05</v>
       </c>
       <c r="T9">
-        <v>0.0009413240197398631</v>
+        <v>4.689136711155395E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.2862650962286</v>
+        <v>20.799852</v>
       </c>
       <c r="H10">
-        <v>19.2862650962286</v>
+        <v>62.399556</v>
       </c>
       <c r="I10">
-        <v>0.06673251426025108</v>
+        <v>0.0681907346755814</v>
       </c>
       <c r="J10">
-        <v>0.06673251426025108</v>
+        <v>0.0830339464762806</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2887580692906</v>
+        <v>0.3667503333333333</v>
       </c>
       <c r="N10">
-        <v>20.2887580692906</v>
+        <v>1.100251</v>
       </c>
       <c r="O10">
-        <v>0.4204209837012255</v>
+        <v>0.006988420361540874</v>
       </c>
       <c r="P10">
-        <v>0.4204209837012255</v>
+        <v>0.008464424343389947</v>
       </c>
       <c r="Q10">
-        <v>391.2943665975857</v>
+        <v>7.628352654284</v>
       </c>
       <c r="R10">
-        <v>391.2943665975857</v>
+        <v>68.65517388855599</v>
       </c>
       <c r="S10">
-        <v>0.02805574929015081</v>
+        <v>0.0004765455186752644</v>
       </c>
       <c r="T10">
-        <v>0.02805574929015081</v>
+        <v>0.0007028345578815674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.2862650962286</v>
+        <v>20.799852</v>
       </c>
       <c r="H11">
-        <v>19.2862650962286</v>
+        <v>62.399556</v>
       </c>
       <c r="I11">
-        <v>0.06673251426025108</v>
+        <v>0.0681907346755814</v>
       </c>
       <c r="J11">
-        <v>0.06673251426025108</v>
+        <v>0.0830339464762806</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.117897888021796</v>
+        <v>0.7310793333333333</v>
       </c>
       <c r="N11">
-        <v>0.117897888021796</v>
+        <v>2.193238</v>
       </c>
       <c r="O11">
-        <v>0.002443064572466141</v>
+        <v>0.01393070226421533</v>
       </c>
       <c r="P11">
-        <v>0.002443064572466141</v>
+        <v>0.0168729654579254</v>
       </c>
       <c r="Q11">
-        <v>2.273809922673832</v>
+        <v>15.206341933592</v>
       </c>
       <c r="R11">
-        <v>2.273809922673832</v>
+        <v>136.857077402328</v>
       </c>
       <c r="S11">
-        <v>0.000163031841420811</v>
+        <v>0.0009499448219436288</v>
       </c>
       <c r="T11">
-        <v>0.000163031841420811</v>
+        <v>0.001401028910729509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.891361403472681</v>
+        <v>20.799852</v>
       </c>
       <c r="H12">
-        <v>0.891361403472681</v>
+        <v>62.399556</v>
       </c>
       <c r="I12">
-        <v>0.003084204602160626</v>
+        <v>0.0681907346755814</v>
       </c>
       <c r="J12">
-        <v>0.003084204602160626</v>
+        <v>0.0830339464762806</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.8375516326358</v>
+        <v>23.90359566666666</v>
       </c>
       <c r="N12">
-        <v>26.8375516326358</v>
+        <v>71.710787</v>
       </c>
       <c r="O12">
-        <v>0.5561242250014019</v>
+        <v>0.4554825435404473</v>
       </c>
       <c r="P12">
-        <v>0.5561242250014019</v>
+        <v>0.5516836896003288</v>
       </c>
       <c r="Q12">
-        <v>23.92195768903679</v>
+        <v>497.191252134508</v>
       </c>
       <c r="R12">
-        <v>23.92195768903679</v>
+        <v>4474.721269210572</v>
       </c>
       <c r="S12">
-        <v>0.001715200894122335</v>
+        <v>0.03105968927592559</v>
       </c>
       <c r="T12">
-        <v>0.001715200894122335</v>
+        <v>0.0458084739541107</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.891361403472681</v>
+        <v>20.799852</v>
       </c>
       <c r="H13">
-        <v>0.891361403472681</v>
+        <v>62.399556</v>
       </c>
       <c r="I13">
-        <v>0.003084204602160626</v>
+        <v>0.0681907346755814</v>
       </c>
       <c r="J13">
-        <v>0.003084204602160626</v>
+        <v>0.0830339464762806</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.333261401372031</v>
+        <v>0.117905</v>
       </c>
       <c r="N13">
-        <v>0.333261401372031</v>
+        <v>0.23581</v>
       </c>
       <c r="O13">
-        <v>0.006905799049698914</v>
+        <v>0.002246677447402848</v>
       </c>
       <c r="P13">
-        <v>0.006905799049698914</v>
+        <v>0.001814127780310842</v>
       </c>
       <c r="Q13">
-        <v>0.297056350450246</v>
+        <v>2.452406550060001</v>
       </c>
       <c r="R13">
-        <v>0.297056350450246</v>
+        <v>14.71443930036</v>
       </c>
       <c r="S13">
-        <v>2.129889721067787E-05</v>
+        <v>0.0001532025857174601</v>
       </c>
       <c r="T13">
-        <v>2.129889721067787E-05</v>
+        <v>0.0001506341890114641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.891361403472681</v>
+        <v>1.083748333333333</v>
       </c>
       <c r="H14">
-        <v>0.891361403472681</v>
+        <v>3.251245</v>
       </c>
       <c r="I14">
-        <v>0.003084204602160626</v>
+        <v>0.003552986581512064</v>
       </c>
       <c r="J14">
-        <v>0.003084204602160626</v>
+        <v>0.00432637218302122</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.680726616986801</v>
+        <v>27.3359195</v>
       </c>
       <c r="N14">
-        <v>0.680726616986801</v>
+        <v>54.67183900000001</v>
       </c>
       <c r="O14">
-        <v>0.01410592767520762</v>
+        <v>0.5208854064261035</v>
       </c>
       <c r="P14">
-        <v>0.01410592767520762</v>
+        <v>0.4206000675568538</v>
       </c>
       <c r="Q14">
-        <v>0.6067734326985651</v>
+        <v>29.62525719825917</v>
       </c>
       <c r="R14">
-        <v>0.6067734326985651</v>
+        <v>177.751543189555</v>
       </c>
       <c r="S14">
-        <v>4.350556705362028E-05</v>
+        <v>0.001850698859537404</v>
       </c>
       <c r="T14">
-        <v>4.350556705362028E-05</v>
+        <v>0.001819672432454818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.891361403472681</v>
+        <v>1.083748333333333</v>
       </c>
       <c r="H15">
-        <v>0.891361403472681</v>
+        <v>3.251245</v>
       </c>
       <c r="I15">
-        <v>0.003084204602160626</v>
+        <v>0.003552986581512064</v>
       </c>
       <c r="J15">
-        <v>0.003084204602160626</v>
+        <v>0.00432637218302122</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>20.2887580692906</v>
+        <v>0.02446866666666667</v>
       </c>
       <c r="N15">
-        <v>20.2887580692906</v>
+        <v>0.073406</v>
       </c>
       <c r="O15">
-        <v>0.4204209837012255</v>
+        <v>0.0004662499602902151</v>
       </c>
       <c r="P15">
-        <v>0.4204209837012255</v>
+        <v>0.0005647252611912032</v>
       </c>
       <c r="Q15">
-        <v>18.08461586736055</v>
+        <v>0.02651787671888889</v>
       </c>
       <c r="R15">
-        <v>18.08461586736055</v>
+        <v>0.23866089047</v>
       </c>
       <c r="S15">
-        <v>0.001296664332776217</v>
+        <v>1.656579852541667E-06</v>
       </c>
       <c r="T15">
-        <v>0.001296664332776217</v>
+        <v>2.443211661067014E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.891361403472681</v>
+        <v>1.083748333333333</v>
       </c>
       <c r="H16">
-        <v>0.891361403472681</v>
+        <v>3.251245</v>
       </c>
       <c r="I16">
-        <v>0.003084204602160626</v>
+        <v>0.003552986581512064</v>
       </c>
       <c r="J16">
-        <v>0.003084204602160626</v>
+        <v>0.00432637218302122</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.117897888021796</v>
+        <v>0.3667503333333333</v>
       </c>
       <c r="N16">
-        <v>0.117897888021796</v>
+        <v>1.100251</v>
       </c>
       <c r="O16">
-        <v>0.002443064572466141</v>
+        <v>0.006988420361540874</v>
       </c>
       <c r="P16">
-        <v>0.002443064572466141</v>
+        <v>0.008464424343389947</v>
       </c>
       <c r="Q16">
-        <v>0.1050896269335731</v>
+        <v>0.3974650624994444</v>
       </c>
       <c r="R16">
-        <v>0.1050896269335731</v>
+        <v>3.577185562495</v>
       </c>
       <c r="S16">
-        <v>7.534910997775653E-06</v>
+        <v>2.482976377052041E-05</v>
       </c>
       <c r="T16">
-        <v>7.534910997775653E-06</v>
+        <v>3.662025002452992E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.73684414343345</v>
+        <v>1.083748333333333</v>
       </c>
       <c r="H17">
-        <v>1.73684414343345</v>
+        <v>3.251245</v>
       </c>
       <c r="I17">
-        <v>0.006009664182837096</v>
+        <v>0.003552986581512064</v>
       </c>
       <c r="J17">
-        <v>0.006009664182837096</v>
+        <v>0.00432637218302122</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.8375516326358</v>
+        <v>0.7310793333333333</v>
       </c>
       <c r="N17">
-        <v>26.8375516326358</v>
+        <v>2.193238</v>
       </c>
       <c r="O17">
-        <v>0.5561242250014019</v>
+        <v>0.01393070226421533</v>
       </c>
       <c r="P17">
-        <v>0.5561242250014019</v>
+        <v>0.0168729654579254</v>
       </c>
       <c r="Q17">
-        <v>46.61264437723631</v>
+        <v>0.7923060090344444</v>
       </c>
       <c r="R17">
-        <v>46.61264437723631</v>
+        <v>7.13075408131</v>
       </c>
       <c r="S17">
-        <v>0.003342119836198963</v>
+        <v>4.94955982157968E-05</v>
       </c>
       <c r="T17">
-        <v>0.003342119836198963</v>
+        <v>7.299872840224636E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.73684414343345</v>
+        <v>1.083748333333333</v>
       </c>
       <c r="H18">
-        <v>1.73684414343345</v>
+        <v>3.251245</v>
       </c>
       <c r="I18">
-        <v>0.006009664182837096</v>
+        <v>0.003552986581512064</v>
       </c>
       <c r="J18">
-        <v>0.006009664182837096</v>
+        <v>0.00432637218302122</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.333261401372031</v>
+        <v>23.90359566666666</v>
       </c>
       <c r="N18">
-        <v>0.333261401372031</v>
+        <v>71.710787</v>
       </c>
       <c r="O18">
-        <v>0.006905799049698914</v>
+        <v>0.4554825435404473</v>
       </c>
       <c r="P18">
-        <v>0.006905799049698914</v>
+        <v>0.5516836896003288</v>
       </c>
       <c r="Q18">
-        <v>0.5788231132054363</v>
+        <v>25.90548196442388</v>
       </c>
       <c r="R18">
-        <v>0.5788231132054363</v>
+        <v>233.149337679815</v>
       </c>
       <c r="S18">
-        <v>4.150153320284602E-05</v>
+        <v>0.001618323365312194</v>
       </c>
       <c r="T18">
-        <v>4.150153320284602E-05</v>
+        <v>0.002386788968513375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.73684414343345</v>
+        <v>1.083748333333333</v>
       </c>
       <c r="H19">
-        <v>1.73684414343345</v>
+        <v>3.251245</v>
       </c>
       <c r="I19">
-        <v>0.006009664182837096</v>
+        <v>0.003552986581512064</v>
       </c>
       <c r="J19">
-        <v>0.006009664182837096</v>
+        <v>0.00432637218302122</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.680726616986801</v>
+        <v>0.117905</v>
       </c>
       <c r="N19">
-        <v>0.680726616986801</v>
+        <v>0.23581</v>
       </c>
       <c r="O19">
-        <v>0.01410592767520762</v>
+        <v>0.002246677447402848</v>
       </c>
       <c r="P19">
-        <v>0.01410592767520762</v>
+        <v>0.001814127780310842</v>
       </c>
       <c r="Q19">
-        <v>1.182316037992791</v>
+        <v>0.1277793472416667</v>
       </c>
       <c r="R19">
-        <v>1.182316037992791</v>
+        <v>0.76667608345</v>
       </c>
       <c r="S19">
-        <v>8.47718883153858E-05</v>
+        <v>7.982414823608095E-06</v>
       </c>
       <c r="T19">
-        <v>8.47718883153858E-05</v>
+        <v>7.848591965182856E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.73684414343345</v>
+        <v>1.854109</v>
       </c>
       <c r="H20">
-        <v>1.73684414343345</v>
+        <v>5.562327</v>
       </c>
       <c r="I20">
-        <v>0.006009664182837096</v>
+        <v>0.006078555505039533</v>
       </c>
       <c r="J20">
-        <v>0.006009664182837096</v>
+        <v>0.007401686678693201</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.2887580692906</v>
+        <v>27.3359195</v>
       </c>
       <c r="N20">
-        <v>20.2887580692906</v>
+        <v>54.67183900000001</v>
       </c>
       <c r="O20">
-        <v>0.4204209837012255</v>
+        <v>0.5208854064261035</v>
       </c>
       <c r="P20">
-        <v>0.4204209837012255</v>
+        <v>0.4206000675568538</v>
       </c>
       <c r="Q20">
-        <v>35.23841063018553</v>
+        <v>50.68377436822551</v>
       </c>
       <c r="R20">
-        <v>35.23841063018553</v>
+        <v>304.102646209353</v>
       </c>
       <c r="S20">
-        <v>0.002526588927462393</v>
+        <v>0.003166230854726146</v>
       </c>
       <c r="T20">
-        <v>0.002526588927462393</v>
+        <v>0.003113149917093025</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.73684414343345</v>
+        <v>1.854109</v>
       </c>
       <c r="H21">
-        <v>1.73684414343345</v>
+        <v>5.562327</v>
       </c>
       <c r="I21">
-        <v>0.006009664182837096</v>
+        <v>0.006078555505039533</v>
       </c>
       <c r="J21">
-        <v>0.006009664182837096</v>
+        <v>0.007401686678693201</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.117897888021796</v>
+        <v>0.02446866666666667</v>
       </c>
       <c r="N21">
-        <v>0.117897888021796</v>
+        <v>0.073406</v>
       </c>
       <c r="O21">
-        <v>0.002443064572466141</v>
+        <v>0.0004662499602902151</v>
       </c>
       <c r="P21">
-        <v>0.002443064572466141</v>
+        <v>0.0005647252611912032</v>
       </c>
       <c r="Q21">
-        <v>0.2047702563338291</v>
+        <v>0.04536757508466666</v>
       </c>
       <c r="R21">
-        <v>0.2047702563338291</v>
+        <v>0.408308175762</v>
       </c>
       <c r="S21">
-        <v>1.468199765750799E-05</v>
+        <v>2.834126262846551E-06</v>
       </c>
       <c r="T21">
-        <v>1.468199765750799E-05</v>
+        <v>4.179919442880467E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>112.390653518038</v>
+        <v>1.854109</v>
       </c>
       <c r="H22">
-        <v>112.390653518038</v>
+        <v>5.562327</v>
       </c>
       <c r="I22">
-        <v>0.3888835319430533</v>
+        <v>0.006078555505039533</v>
       </c>
       <c r="J22">
-        <v>0.3888835319430533</v>
+        <v>0.007401686678693201</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.8375516326358</v>
+        <v>0.3667503333333333</v>
       </c>
       <c r="N22">
-        <v>26.8375516326358</v>
+        <v>1.100251</v>
       </c>
       <c r="O22">
-        <v>0.5561242250014019</v>
+        <v>0.006988420361540874</v>
       </c>
       <c r="P22">
-        <v>0.5561242250014019</v>
+        <v>0.008464424343389947</v>
       </c>
       <c r="Q22">
-        <v>3016.289966816025</v>
+        <v>0.6799950937863333</v>
       </c>
       <c r="R22">
-        <v>3016.289966816025</v>
+        <v>6.119955844076999</v>
       </c>
       <c r="S22">
-        <v>0.2162675528176384</v>
+        <v>4.247950106017465E-05</v>
       </c>
       <c r="T22">
-        <v>0.2162675528176384</v>
+        <v>6.265101690527581E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>112.390653518038</v>
+        <v>1.854109</v>
       </c>
       <c r="H23">
-        <v>112.390653518038</v>
+        <v>5.562327</v>
       </c>
       <c r="I23">
-        <v>0.3888835319430533</v>
+        <v>0.006078555505039533</v>
       </c>
       <c r="J23">
-        <v>0.3888835319430533</v>
+        <v>0.007401686678693201</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.333261401372031</v>
+        <v>0.7310793333333333</v>
       </c>
       <c r="N23">
-        <v>0.333261401372031</v>
+        <v>2.193238</v>
       </c>
       <c r="O23">
-        <v>0.006905799049698914</v>
+        <v>0.01393070226421533</v>
       </c>
       <c r="P23">
-        <v>0.006905799049698914</v>
+        <v>0.0168729654579254</v>
       </c>
       <c r="Q23">
-        <v>37.45546669253972</v>
+        <v>1.355500771647333</v>
       </c>
       <c r="R23">
-        <v>37.45546669253972</v>
+        <v>12.199506944826</v>
       </c>
       <c r="S23">
-        <v>0.002685551525335895</v>
+        <v>8.46785469372128E-05</v>
       </c>
       <c r="T23">
-        <v>0.002685551525335895</v>
+        <v>0.000124888403659977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>112.390653518038</v>
+        <v>1.854109</v>
       </c>
       <c r="H24">
-        <v>112.390653518038</v>
+        <v>5.562327</v>
       </c>
       <c r="I24">
-        <v>0.3888835319430533</v>
+        <v>0.006078555505039533</v>
       </c>
       <c r="J24">
-        <v>0.3888835319430533</v>
+        <v>0.007401686678693201</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.680726616986801</v>
+        <v>23.90359566666666</v>
       </c>
       <c r="N24">
-        <v>0.680726616986801</v>
+        <v>71.710787</v>
       </c>
       <c r="O24">
-        <v>0.01410592767520762</v>
+        <v>0.4554825435404473</v>
       </c>
       <c r="P24">
-        <v>0.01410592767520762</v>
+        <v>0.5516836896003288</v>
       </c>
       <c r="Q24">
-        <v>76.50730935026971</v>
+        <v>44.31987185792767</v>
       </c>
       <c r="R24">
-        <v>76.50730935026971</v>
+        <v>398.878846721349</v>
       </c>
       <c r="S24">
-        <v>0.005485562975668002</v>
+        <v>0.002768675922487195</v>
       </c>
       <c r="T24">
-        <v>0.005485562975668002</v>
+        <v>0.004083389816167068</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>112.390653518038</v>
+        <v>1.854109</v>
       </c>
       <c r="H25">
-        <v>112.390653518038</v>
+        <v>5.562327</v>
       </c>
       <c r="I25">
-        <v>0.3888835319430533</v>
+        <v>0.006078555505039533</v>
       </c>
       <c r="J25">
-        <v>0.3888835319430533</v>
+        <v>0.007401686678693201</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2887580692906</v>
+        <v>0.117905</v>
       </c>
       <c r="N25">
-        <v>20.2887580692906</v>
+        <v>0.23581</v>
       </c>
       <c r="O25">
-        <v>0.4204209837012255</v>
+        <v>0.002246677447402848</v>
       </c>
       <c r="P25">
-        <v>0.4204209837012255</v>
+        <v>0.001814127780310842</v>
       </c>
       <c r="Q25">
-        <v>2280.266778476937</v>
+        <v>0.218608721645</v>
       </c>
       <c r="R25">
-        <v>2280.266778476937</v>
+        <v>1.31165232987</v>
       </c>
       <c r="S25">
-        <v>0.1634947970447054</v>
+        <v>1.365655356595875E-05</v>
       </c>
       <c r="T25">
-        <v>0.1634947970447054</v>
+        <v>1.342760542497402E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>112.390653518038</v>
+        <v>117.707601</v>
       </c>
       <c r="H26">
-        <v>112.390653518038</v>
+        <v>353.122803</v>
       </c>
       <c r="I26">
-        <v>0.3888835319430533</v>
+        <v>0.3858954279621893</v>
       </c>
       <c r="J26">
-        <v>0.3888835319430533</v>
+        <v>0.4698940473848271</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.117897888021796</v>
+        <v>27.3359195</v>
       </c>
       <c r="N26">
-        <v>0.117897888021796</v>
+        <v>54.67183900000001</v>
       </c>
       <c r="O26">
-        <v>0.002443064572466141</v>
+        <v>0.5208854064261035</v>
       </c>
       <c r="P26">
-        <v>0.002443064572466141</v>
+        <v>0.4206000675568538</v>
       </c>
       <c r="Q26">
-        <v>13.25062068316612</v>
+        <v>3217.64550547412</v>
       </c>
       <c r="R26">
-        <v>13.25062068316612</v>
+        <v>19305.87303284472</v>
       </c>
       <c r="S26">
-        <v>0.0009500675797055782</v>
+        <v>0.2010072968320601</v>
       </c>
       <c r="T26">
-        <v>0.0009500675797055782</v>
+        <v>0.1976374680746217</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.4122866187644</v>
+        <v>117.707601</v>
       </c>
       <c r="H27">
-        <v>23.4122866187644</v>
+        <v>353.122803</v>
       </c>
       <c r="I27">
-        <v>0.08100898452118124</v>
+        <v>0.3858954279621893</v>
       </c>
       <c r="J27">
-        <v>0.08100898452118124</v>
+        <v>0.4698940473848271</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>26.8375516326358</v>
+        <v>0.02446866666666667</v>
       </c>
       <c r="N27">
-        <v>26.8375516326358</v>
+        <v>0.073406</v>
       </c>
       <c r="O27">
-        <v>0.5561242250014019</v>
+        <v>0.0004662499602902151</v>
       </c>
       <c r="P27">
-        <v>0.5561242250014019</v>
+        <v>0.0005647252611912032</v>
       </c>
       <c r="Q27">
-        <v>628.3284509691579</v>
+        <v>2.880148053002</v>
       </c>
       <c r="R27">
-        <v>628.3284509691579</v>
+        <v>25.921332477018</v>
       </c>
       <c r="S27">
-        <v>0.04505105873499248</v>
+        <v>0.0001799237279635463</v>
       </c>
       <c r="T27">
-        <v>0.04505105873499248</v>
+        <v>0.0002653610386415881</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.4122866187644</v>
+        <v>117.707601</v>
       </c>
       <c r="H28">
-        <v>23.4122866187644</v>
+        <v>353.122803</v>
       </c>
       <c r="I28">
-        <v>0.08100898452118124</v>
+        <v>0.3858954279621893</v>
       </c>
       <c r="J28">
-        <v>0.08100898452118124</v>
+        <v>0.4698940473848271</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.333261401372031</v>
+        <v>0.3667503333333333</v>
       </c>
       <c r="N28">
-        <v>0.333261401372031</v>
+        <v>1.100251</v>
       </c>
       <c r="O28">
-        <v>0.006905799049698914</v>
+        <v>0.006988420361540874</v>
       </c>
       <c r="P28">
-        <v>0.006905799049698914</v>
+        <v>0.008464424343389947</v>
       </c>
       <c r="Q28">
-        <v>7.802411447893073</v>
+        <v>43.16930190261699</v>
       </c>
       <c r="R28">
-        <v>7.802411447893073</v>
+        <v>388.5237171235529</v>
       </c>
       <c r="S28">
-        <v>0.0005594317683234475</v>
+        <v>0.002696799466196493</v>
       </c>
       <c r="T28">
-        <v>0.0005594317683234475</v>
+        <v>0.003977382613498159</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.4122866187644</v>
+        <v>117.707601</v>
       </c>
       <c r="H29">
-        <v>23.4122866187644</v>
+        <v>353.122803</v>
       </c>
       <c r="I29">
-        <v>0.08100898452118124</v>
+        <v>0.3858954279621893</v>
       </c>
       <c r="J29">
-        <v>0.08100898452118124</v>
+        <v>0.4698940473848271</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.680726616986801</v>
+        <v>0.7310793333333333</v>
       </c>
       <c r="N29">
-        <v>0.680726616986801</v>
+        <v>2.193238</v>
       </c>
       <c r="O29">
-        <v>0.01410592767520762</v>
+        <v>0.01393070226421533</v>
       </c>
       <c r="P29">
-        <v>0.01410592767520762</v>
+        <v>0.0168729654579254</v>
       </c>
       <c r="Q29">
-        <v>15.93736666591684</v>
+        <v>86.05359446734599</v>
       </c>
       <c r="R29">
-        <v>15.93736666591684</v>
+        <v>774.482350206114</v>
       </c>
       <c r="S29">
-        <v>0.001142706876697796</v>
+        <v>0.005375794312063215</v>
       </c>
       <c r="T29">
-        <v>0.001142706876697796</v>
+        <v>0.00792850603040895</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.4122866187644</v>
+        <v>117.707601</v>
       </c>
       <c r="H30">
-        <v>23.4122866187644</v>
+        <v>353.122803</v>
       </c>
       <c r="I30">
-        <v>0.08100898452118124</v>
+        <v>0.3858954279621893</v>
       </c>
       <c r="J30">
-        <v>0.08100898452118124</v>
+        <v>0.4698940473848271</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>20.2887580692906</v>
+        <v>23.90359566666666</v>
       </c>
       <c r="N30">
-        <v>20.2887580692906</v>
+        <v>71.710787</v>
       </c>
       <c r="O30">
-        <v>0.4204209837012255</v>
+        <v>0.4554825435404473</v>
       </c>
       <c r="P30">
-        <v>0.4204209837012255</v>
+        <v>0.5516836896003288</v>
       </c>
       <c r="Q30">
-        <v>475.0062190570006</v>
+        <v>2813.634901197328</v>
       </c>
       <c r="R30">
-        <v>475.0062190570006</v>
+        <v>25322.71411077596</v>
       </c>
       <c r="S30">
-        <v>0.03405787696103237</v>
+        <v>0.1757686310688474</v>
       </c>
       <c r="T30">
-        <v>0.03405787696103237</v>
+        <v>0.2592328817824932</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.4122866187644</v>
+        <v>117.707601</v>
       </c>
       <c r="H31">
-        <v>23.4122866187644</v>
+        <v>353.122803</v>
       </c>
       <c r="I31">
-        <v>0.08100898452118124</v>
+        <v>0.3858954279621893</v>
       </c>
       <c r="J31">
-        <v>0.08100898452118124</v>
+        <v>0.4698940473848271</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.117897888021796</v>
+        <v>0.117905</v>
       </c>
       <c r="N31">
-        <v>0.117897888021796</v>
+        <v>0.23581</v>
       </c>
       <c r="O31">
-        <v>0.002443064572466141</v>
+        <v>0.002246677447402848</v>
       </c>
       <c r="P31">
-        <v>0.002443064572466141</v>
+        <v>0.001814127780310842</v>
       </c>
       <c r="Q31">
-        <v>2.760259146113278</v>
+        <v>13.878314695905</v>
       </c>
       <c r="R31">
-        <v>2.760259146113278</v>
+        <v>83.26988817543</v>
       </c>
       <c r="S31">
-        <v>0.0001979101801351559</v>
+        <v>0.0008669825550585211</v>
       </c>
       <c r="T31">
-        <v>0.0001979101801351559</v>
+        <v>0.0008524478451635138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.8210445</v>
+      </c>
+      <c r="H32">
+        <v>51.642089</v>
+      </c>
+      <c r="I32">
+        <v>0.08465233284092022</v>
+      </c>
+      <c r="J32">
+        <v>0.06871918213567607</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>27.3359195</v>
+      </c>
+      <c r="N32">
+        <v>54.67183900000001</v>
+      </c>
+      <c r="O32">
+        <v>0.5208854064261035</v>
+      </c>
+      <c r="P32">
+        <v>0.4206000675568538</v>
+      </c>
+      <c r="Q32">
+        <v>705.8419938579178</v>
+      </c>
+      <c r="R32">
+        <v>2823.367975431671</v>
+      </c>
+      <c r="S32">
+        <v>0.04409416479676052</v>
+      </c>
+      <c r="T32">
+        <v>0.0289032926487171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.8210445</v>
+      </c>
+      <c r="H33">
+        <v>51.642089</v>
+      </c>
+      <c r="I33">
+        <v>0.08465233284092022</v>
+      </c>
+      <c r="J33">
+        <v>0.06871918213567607</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.02446866666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.073406</v>
+      </c>
+      <c r="O33">
+        <v>0.0004662499602902151</v>
+      </c>
+      <c r="P33">
+        <v>0.0005647252611912032</v>
+      </c>
+      <c r="Q33">
+        <v>0.6318065308556666</v>
+      </c>
+      <c r="R33">
+        <v>3.790839185134</v>
+      </c>
+      <c r="S33">
+        <v>3.946914682555313E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.880745808041554E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.8210445</v>
+      </c>
+      <c r="H34">
+        <v>51.642089</v>
+      </c>
+      <c r="I34">
+        <v>0.08465233284092022</v>
+      </c>
+      <c r="J34">
+        <v>0.06871918213567607</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.3667503333333333</v>
+      </c>
+      <c r="N34">
+        <v>1.100251</v>
+      </c>
+      <c r="O34">
+        <v>0.006988420361540874</v>
+      </c>
+      <c r="P34">
+        <v>0.008464424343389947</v>
+      </c>
+      <c r="Q34">
+        <v>9.469876677389832</v>
+      </c>
+      <c r="R34">
+        <v>56.81926006433899</v>
+      </c>
+      <c r="S34">
+        <v>0.0005915860864774221</v>
+      </c>
+      <c r="T34">
+        <v>0.0005816683181270641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.8210445</v>
+      </c>
+      <c r="H35">
+        <v>51.642089</v>
+      </c>
+      <c r="I35">
+        <v>0.08465233284092022</v>
+      </c>
+      <c r="J35">
+        <v>0.06871918213567607</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7310793333333333</v>
+      </c>
+      <c r="N35">
+        <v>2.193238</v>
+      </c>
+      <c r="O35">
+        <v>0.01393070226421533</v>
+      </c>
+      <c r="P35">
+        <v>0.0168729654579254</v>
+      </c>
+      <c r="Q35">
+        <v>18.87723199903033</v>
+      </c>
+      <c r="R35">
+        <v>113.263391994182</v>
+      </c>
+      <c r="S35">
+        <v>0.001179266444778117</v>
+      </c>
+      <c r="T35">
+        <v>0.001159496386472147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.8210445</v>
+      </c>
+      <c r="H36">
+        <v>51.642089</v>
+      </c>
+      <c r="I36">
+        <v>0.08465233284092022</v>
+      </c>
+      <c r="J36">
+        <v>0.06871918213567607</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>23.90359566666666</v>
+      </c>
+      <c r="N36">
+        <v>71.710787</v>
+      </c>
+      <c r="O36">
+        <v>0.4554825435404473</v>
+      </c>
+      <c r="P36">
+        <v>0.5516836896003288</v>
+      </c>
+      <c r="Q36">
+        <v>617.2158074190071</v>
+      </c>
+      <c r="R36">
+        <v>3703.294844514043</v>
+      </c>
+      <c r="S36">
+        <v>0.03855765987901488</v>
+      </c>
+      <c r="T36">
+        <v>0.03791125194692677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.8210445</v>
+      </c>
+      <c r="H37">
+        <v>51.642089</v>
+      </c>
+      <c r="I37">
+        <v>0.08465233284092022</v>
+      </c>
+      <c r="J37">
+        <v>0.06871918213567607</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.117905</v>
+      </c>
+      <c r="N37">
+        <v>0.23581</v>
+      </c>
+      <c r="O37">
+        <v>0.002246677447402848</v>
+      </c>
+      <c r="P37">
+        <v>0.001814127780310842</v>
+      </c>
+      <c r="Q37">
+        <v>3.0444302517725</v>
+      </c>
+      <c r="R37">
+        <v>12.17772100709</v>
+      </c>
+      <c r="S37">
+        <v>0.0001901864870637349</v>
+      </c>
+      <c r="T37">
+        <v>0.0001246653773525705</v>
       </c>
     </row>
   </sheetData>
